--- a/HW6/hw6.xlsx
+++ b/HW6/hw6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericgustin/OneDrive - Gonzaga University/CPSC 223-01/vm-share/CPSC223/HW6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gonzagau-my.sharepoint.com/personal/egustin_zagmail_gonzaga_edu/Documents/CPSC 223-01/vm-share/CPSC223/ComputerScience223/HW6/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="292" documentId="13_ncr:1_{F3C3292C-7BBC-FB4E-AB28-37DE051B4E1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0258888D-ADDB-A24D-8AA0-532DB3738207}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{48DEC31F-1F93-F14E-890E-943183DD87A8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19800" xr2:uid="{48DEC31F-1F93-F14E-890E-943183DD87A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
